--- a/biology/Botanique/Lierre_d'Irlande/Lierre_d'Irlande.xlsx
+++ b/biology/Botanique/Lierre_d'Irlande/Lierre_d'Irlande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lierre_d%27Irlande</t>
+          <t>Lierre_d'Irlande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lierre d'Irlande (Hedera helix subsp. hibernica ou Hedera hibernica (Kirchn.) Bean) est une plante de la famille des Araliaceae. C'est une forme tétraploïde du lierre commun, avec donc 96 chromosomes au lieu de 48.
 </t>
